--- a/user-data/evi/evi.xlsx
+++ b/user-data/evi/evi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>id</t>
   </si>
@@ -856,9 +856,6 @@
     <t>Source: NA</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1241,32 +1238,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13">
@@ -1282,11 +1279,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/evi/evi.xlsx
+++ b/user-data/evi/evi.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -862,7 +862,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/evi/evi.xlsx
+++ b/user-data/evi/evi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>id</t>
   </si>
@@ -868,7 +868,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1281,6 +1284,11 @@
         <v>286</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/evi/evi.xlsx
+++ b/user-data/evi/evi.xlsx
@@ -49,7 +49,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -136,12 +136,6 @@
     <t>Burundi</t>
   </si>
   <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
     <t>KH</t>
   </si>
   <si>
@@ -206,6 +200,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>CU</t>
@@ -601,7 +601,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -613,7 +613,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -733,7 +733,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -877,7 +877,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -4352,7 +4352,7 @@
         <v>2000</v>
       </c>
       <c r="D218" t="n">
-        <v>20.8964178</v>
+        <v>64.71735376</v>
       </c>
     </row>
     <row r="219">
@@ -4366,7 +4366,7 @@
         <v>2001</v>
       </c>
       <c r="D219" t="n">
-        <v>20.83712291</v>
+        <v>64.31832025</v>
       </c>
     </row>
     <row r="220">
@@ -4380,7 +4380,7 @@
         <v>2002</v>
       </c>
       <c r="D220" t="n">
-        <v>22.07428505</v>
+        <v>64.27752894</v>
       </c>
     </row>
     <row r="221">
@@ -4394,7 +4394,7 @@
         <v>2003</v>
       </c>
       <c r="D221" t="n">
-        <v>22.04308272</v>
+        <v>63.88789661</v>
       </c>
     </row>
     <row r="222">
@@ -4408,7 +4408,7 @@
         <v>2004</v>
       </c>
       <c r="D222" t="n">
-        <v>21.63553446</v>
+        <v>62.38311177</v>
       </c>
     </row>
     <row r="223">
@@ -4422,7 +4422,7 @@
         <v>2005</v>
       </c>
       <c r="D223" t="n">
-        <v>20.84663227</v>
+        <v>62.80408966</v>
       </c>
     </row>
     <row r="224">
@@ -4436,7 +4436,7 @@
         <v>2006</v>
       </c>
       <c r="D224" t="n">
-        <v>19.3864312</v>
+        <v>63.11029919</v>
       </c>
     </row>
     <row r="225">
@@ -4450,7 +4450,7 @@
         <v>2007</v>
       </c>
       <c r="D225" t="n">
-        <v>19.67883304</v>
+        <v>63.07568185</v>
       </c>
     </row>
     <row r="226">
@@ -4464,7 +4464,7 @@
         <v>2008</v>
       </c>
       <c r="D226" t="n">
-        <v>20.11190328</v>
+        <v>62.55056524</v>
       </c>
     </row>
     <row r="227">
@@ -4478,7 +4478,7 @@
         <v>2009</v>
       </c>
       <c r="D227" t="n">
-        <v>20.08274966</v>
+        <v>59.70543711</v>
       </c>
     </row>
     <row r="228">
@@ -4492,7 +4492,7 @@
         <v>2010</v>
       </c>
       <c r="D228" t="n">
-        <v>21.09250752</v>
+        <v>50.17012017</v>
       </c>
     </row>
     <row r="229">
@@ -4506,7 +4506,7 @@
         <v>2011</v>
       </c>
       <c r="D229" t="n">
-        <v>22.3368563</v>
+        <v>50.33808382</v>
       </c>
     </row>
     <row r="230">
@@ -4520,7 +4520,7 @@
         <v>2000</v>
       </c>
       <c r="D230" t="n">
-        <v>64.71735376</v>
+        <v>25.77242746</v>
       </c>
     </row>
     <row r="231">
@@ -4534,7 +4534,7 @@
         <v>2001</v>
       </c>
       <c r="D231" t="n">
-        <v>64.31832025</v>
+        <v>25.4673245</v>
       </c>
     </row>
     <row r="232">
@@ -4548,7 +4548,7 @@
         <v>2002</v>
       </c>
       <c r="D232" t="n">
-        <v>64.27752894</v>
+        <v>25.33963826</v>
       </c>
     </row>
     <row r="233">
@@ -4562,7 +4562,7 @@
         <v>2003</v>
       </c>
       <c r="D233" t="n">
-        <v>63.88789661</v>
+        <v>25.72232345</v>
       </c>
     </row>
     <row r="234">
@@ -4576,7 +4576,7 @@
         <v>2004</v>
       </c>
       <c r="D234" t="n">
-        <v>62.38311177</v>
+        <v>25.68155385</v>
       </c>
     </row>
     <row r="235">
@@ -4590,7 +4590,7 @@
         <v>2005</v>
       </c>
       <c r="D235" t="n">
-        <v>62.80408966</v>
+        <v>25.80113968</v>
       </c>
     </row>
     <row r="236">
@@ -4604,7 +4604,7 @@
         <v>2006</v>
       </c>
       <c r="D236" t="n">
-        <v>63.11029919</v>
+        <v>25.77938497</v>
       </c>
     </row>
     <row r="237">
@@ -4618,7 +4618,7 @@
         <v>2007</v>
       </c>
       <c r="D237" t="n">
-        <v>63.07568185</v>
+        <v>25.88859652</v>
       </c>
     </row>
     <row r="238">
@@ -4632,7 +4632,7 @@
         <v>2008</v>
       </c>
       <c r="D238" t="n">
-        <v>62.55056524</v>
+        <v>25.98737571</v>
       </c>
     </row>
     <row r="239">
@@ -4646,7 +4646,7 @@
         <v>2009</v>
       </c>
       <c r="D239" t="n">
-        <v>59.70543711</v>
+        <v>26.59640866</v>
       </c>
     </row>
     <row r="240">
@@ -4660,7 +4660,7 @@
         <v>2010</v>
       </c>
       <c r="D240" t="n">
-        <v>50.17012017</v>
+        <v>23.56555266</v>
       </c>
     </row>
     <row r="241">
@@ -4674,7 +4674,7 @@
         <v>2011</v>
       </c>
       <c r="D241" t="n">
-        <v>50.33808382</v>
+        <v>23.08009772</v>
       </c>
     </row>
     <row r="242">
@@ -4688,7 +4688,7 @@
         <v>2000</v>
       </c>
       <c r="D242" t="n">
-        <v>25.77242746</v>
+        <v>38.29006627</v>
       </c>
     </row>
     <row r="243">
@@ -4702,7 +4702,7 @@
         <v>2001</v>
       </c>
       <c r="D243" t="n">
-        <v>25.4673245</v>
+        <v>37.29679997</v>
       </c>
     </row>
     <row r="244">
@@ -4716,7 +4716,7 @@
         <v>2002</v>
       </c>
       <c r="D244" t="n">
-        <v>25.33963826</v>
+        <v>37.69966677</v>
       </c>
     </row>
     <row r="245">
@@ -4730,7 +4730,7 @@
         <v>2003</v>
       </c>
       <c r="D245" t="n">
-        <v>25.72232345</v>
+        <v>35.85824472</v>
       </c>
     </row>
     <row r="246">
@@ -4744,7 +4744,7 @@
         <v>2004</v>
       </c>
       <c r="D246" t="n">
-        <v>25.68155385</v>
+        <v>36.52350001</v>
       </c>
     </row>
     <row r="247">
@@ -4758,7 +4758,7 @@
         <v>2005</v>
       </c>
       <c r="D247" t="n">
-        <v>25.80113968</v>
+        <v>35.87259967</v>
       </c>
     </row>
     <row r="248">
@@ -4772,7 +4772,7 @@
         <v>2006</v>
       </c>
       <c r="D248" t="n">
-        <v>25.77938497</v>
+        <v>34.79117556</v>
       </c>
     </row>
     <row r="249">
@@ -4786,7 +4786,7 @@
         <v>2007</v>
       </c>
       <c r="D249" t="n">
-        <v>25.88859652</v>
+        <v>34.51603403</v>
       </c>
     </row>
     <row r="250">
@@ -4800,7 +4800,7 @@
         <v>2008</v>
       </c>
       <c r="D250" t="n">
-        <v>25.98737571</v>
+        <v>34.03838132</v>
       </c>
     </row>
     <row r="251">
@@ -4814,7 +4814,7 @@
         <v>2009</v>
       </c>
       <c r="D251" t="n">
-        <v>26.59640866</v>
+        <v>34.78716212</v>
       </c>
     </row>
     <row r="252">
@@ -4828,7 +4828,7 @@
         <v>2010</v>
       </c>
       <c r="D252" t="n">
-        <v>23.56555266</v>
+        <v>34.91473581</v>
       </c>
     </row>
     <row r="253">
@@ -4842,7 +4842,7 @@
         <v>2011</v>
       </c>
       <c r="D253" t="n">
-        <v>23.08009772</v>
+        <v>35.13336911</v>
       </c>
     </row>
     <row r="254">
@@ -4856,7 +4856,7 @@
         <v>2000</v>
       </c>
       <c r="D254" t="n">
-        <v>38.29006627</v>
+        <v>32.70164034</v>
       </c>
     </row>
     <row r="255">
@@ -4870,7 +4870,7 @@
         <v>2001</v>
       </c>
       <c r="D255" t="n">
-        <v>37.29679997</v>
+        <v>32.55584109</v>
       </c>
     </row>
     <row r="256">
@@ -4884,7 +4884,7 @@
         <v>2002</v>
       </c>
       <c r="D256" t="n">
-        <v>37.69966677</v>
+        <v>31.71832607</v>
       </c>
     </row>
     <row r="257">
@@ -4898,7 +4898,7 @@
         <v>2003</v>
       </c>
       <c r="D257" t="n">
-        <v>35.85824472</v>
+        <v>32.07259777</v>
       </c>
     </row>
     <row r="258">
@@ -4912,7 +4912,7 @@
         <v>2004</v>
       </c>
       <c r="D258" t="n">
-        <v>36.52350001</v>
+        <v>32.87825621</v>
       </c>
     </row>
     <row r="259">
@@ -4926,7 +4926,7 @@
         <v>2005</v>
       </c>
       <c r="D259" t="n">
-        <v>35.87259967</v>
+        <v>32.49172283</v>
       </c>
     </row>
     <row r="260">
@@ -4940,7 +4940,7 @@
         <v>2006</v>
       </c>
       <c r="D260" t="n">
-        <v>34.79117556</v>
+        <v>32.19084192</v>
       </c>
     </row>
     <row r="261">
@@ -4954,7 +4954,7 @@
         <v>2007</v>
       </c>
       <c r="D261" t="n">
-        <v>34.51603403</v>
+        <v>31.73821025</v>
       </c>
     </row>
     <row r="262">
@@ -4968,7 +4968,7 @@
         <v>2008</v>
       </c>
       <c r="D262" t="n">
-        <v>34.03838132</v>
+        <v>31.27023206</v>
       </c>
     </row>
     <row r="263">
@@ -4982,7 +4982,7 @@
         <v>2009</v>
       </c>
       <c r="D263" t="n">
-        <v>34.78716212</v>
+        <v>31.40901324</v>
       </c>
     </row>
     <row r="264">
@@ -4996,7 +4996,7 @@
         <v>2010</v>
       </c>
       <c r="D264" t="n">
-        <v>34.91473581</v>
+        <v>31.16424729</v>
       </c>
     </row>
     <row r="265">
@@ -5010,7 +5010,7 @@
         <v>2011</v>
       </c>
       <c r="D265" t="n">
-        <v>35.13336911</v>
+        <v>31.26852193</v>
       </c>
     </row>
     <row r="266">
@@ -5024,7 +5024,7 @@
         <v>2000</v>
       </c>
       <c r="D266" t="n">
-        <v>32.70164034</v>
+        <v>40.14928723</v>
       </c>
     </row>
     <row r="267">
@@ -5038,7 +5038,7 @@
         <v>2001</v>
       </c>
       <c r="D267" t="n">
-        <v>32.55584109</v>
+        <v>40.42318623</v>
       </c>
     </row>
     <row r="268">
@@ -5052,7 +5052,7 @@
         <v>2002</v>
       </c>
       <c r="D268" t="n">
-        <v>31.71832607</v>
+        <v>39.57449658</v>
       </c>
     </row>
     <row r="269">
@@ -5066,7 +5066,7 @@
         <v>2003</v>
       </c>
       <c r="D269" t="n">
-        <v>32.07259777</v>
+        <v>43.69061982</v>
       </c>
     </row>
     <row r="270">
@@ -5080,7 +5080,7 @@
         <v>2004</v>
       </c>
       <c r="D270" t="n">
-        <v>32.87825621</v>
+        <v>49.86723452</v>
       </c>
     </row>
     <row r="271">
@@ -5094,7 +5094,7 @@
         <v>2005</v>
       </c>
       <c r="D271" t="n">
-        <v>32.49172283</v>
+        <v>51.48141486</v>
       </c>
     </row>
     <row r="272">
@@ -5108,7 +5108,7 @@
         <v>2006</v>
       </c>
       <c r="D272" t="n">
-        <v>32.19084192</v>
+        <v>52.90480373</v>
       </c>
     </row>
     <row r="273">
@@ -5122,7 +5122,7 @@
         <v>2007</v>
       </c>
       <c r="D273" t="n">
-        <v>31.73821025</v>
+        <v>53.84987418</v>
       </c>
     </row>
     <row r="274">
@@ -5136,7 +5136,7 @@
         <v>2008</v>
       </c>
       <c r="D274" t="n">
-        <v>31.27023206</v>
+        <v>53.90200242</v>
       </c>
     </row>
     <row r="275">
@@ -5150,7 +5150,7 @@
         <v>2009</v>
       </c>
       <c r="D275" t="n">
-        <v>31.40901324</v>
+        <v>56.94860602</v>
       </c>
     </row>
     <row r="276">
@@ -5164,7 +5164,7 @@
         <v>2010</v>
       </c>
       <c r="D276" t="n">
-        <v>31.16424729</v>
+        <v>56.31273771</v>
       </c>
     </row>
     <row r="277">
@@ -5178,7 +5178,7 @@
         <v>2011</v>
       </c>
       <c r="D277" t="n">
-        <v>31.26852193</v>
+        <v>56.00562354</v>
       </c>
     </row>
     <row r="278">
@@ -5192,7 +5192,7 @@
         <v>2000</v>
       </c>
       <c r="D278" t="n">
-        <v>40.14928723</v>
+        <v>28.56653082</v>
       </c>
     </row>
     <row r="279">
@@ -5206,7 +5206,7 @@
         <v>2001</v>
       </c>
       <c r="D279" t="n">
-        <v>40.42318623</v>
+        <v>28.5790603</v>
       </c>
     </row>
     <row r="280">
@@ -5220,7 +5220,7 @@
         <v>2002</v>
       </c>
       <c r="D280" t="n">
-        <v>39.57449658</v>
+        <v>28.23167415</v>
       </c>
     </row>
     <row r="281">
@@ -5234,7 +5234,7 @@
         <v>2003</v>
       </c>
       <c r="D281" t="n">
-        <v>43.69061982</v>
+        <v>27.45678457</v>
       </c>
     </row>
     <row r="282">
@@ -5248,7 +5248,7 @@
         <v>2004</v>
       </c>
       <c r="D282" t="n">
-        <v>49.86723452</v>
+        <v>27.32659917</v>
       </c>
     </row>
     <row r="283">
@@ -5262,7 +5262,7 @@
         <v>2005</v>
       </c>
       <c r="D283" t="n">
-        <v>51.48141486</v>
+        <v>25.754016</v>
       </c>
     </row>
     <row r="284">
@@ -5276,7 +5276,7 @@
         <v>2006</v>
       </c>
       <c r="D284" t="n">
-        <v>52.90480373</v>
+        <v>26.73203477</v>
       </c>
     </row>
     <row r="285">
@@ -5290,7 +5290,7 @@
         <v>2007</v>
       </c>
       <c r="D285" t="n">
-        <v>53.84987418</v>
+        <v>26.64726549</v>
       </c>
     </row>
     <row r="286">
@@ -5304,7 +5304,7 @@
         <v>2008</v>
       </c>
       <c r="D286" t="n">
-        <v>53.90200242</v>
+        <v>27.97126748</v>
       </c>
     </row>
     <row r="287">
@@ -5318,7 +5318,7 @@
         <v>2009</v>
       </c>
       <c r="D287" t="n">
-        <v>56.94860602</v>
+        <v>28.36667472</v>
       </c>
     </row>
     <row r="288">
@@ -5332,7 +5332,7 @@
         <v>2010</v>
       </c>
       <c r="D288" t="n">
-        <v>56.31273771</v>
+        <v>29.96378722</v>
       </c>
     </row>
     <row r="289">
@@ -5346,7 +5346,7 @@
         <v>2011</v>
       </c>
       <c r="D289" t="n">
-        <v>56.00562354</v>
+        <v>30.4322425</v>
       </c>
     </row>
     <row r="290">
@@ -5360,7 +5360,7 @@
         <v>2000</v>
       </c>
       <c r="D290" t="n">
-        <v>28.56653082</v>
+        <v>26.54231826</v>
       </c>
     </row>
     <row r="291">
@@ -5374,7 +5374,7 @@
         <v>2001</v>
       </c>
       <c r="D291" t="n">
-        <v>28.5790603</v>
+        <v>25.43540032</v>
       </c>
     </row>
     <row r="292">
@@ -5388,7 +5388,7 @@
         <v>2002</v>
       </c>
       <c r="D292" t="n">
-        <v>28.23167415</v>
+        <v>25.06447111</v>
       </c>
     </row>
     <row r="293">
@@ -5402,7 +5402,7 @@
         <v>2003</v>
       </c>
       <c r="D293" t="n">
-        <v>27.45678457</v>
+        <v>25.12293289</v>
       </c>
     </row>
     <row r="294">
@@ -5416,7 +5416,7 @@
         <v>2004</v>
       </c>
       <c r="D294" t="n">
-        <v>27.32659917</v>
+        <v>24.54400288</v>
       </c>
     </row>
     <row r="295">
@@ -5430,7 +5430,7 @@
         <v>2005</v>
       </c>
       <c r="D295" t="n">
-        <v>25.754016</v>
+        <v>23.93445676</v>
       </c>
     </row>
     <row r="296">
@@ -5444,7 +5444,7 @@
         <v>2006</v>
       </c>
       <c r="D296" t="n">
-        <v>26.73203477</v>
+        <v>22.93812813</v>
       </c>
     </row>
     <row r="297">
@@ -5458,7 +5458,7 @@
         <v>2007</v>
       </c>
       <c r="D297" t="n">
-        <v>26.64726549</v>
+        <v>22.01977573</v>
       </c>
     </row>
     <row r="298">
@@ -5472,7 +5472,7 @@
         <v>2008</v>
       </c>
       <c r="D298" t="n">
-        <v>27.97126748</v>
+        <v>21.23337545</v>
       </c>
     </row>
     <row r="299">
@@ -5486,7 +5486,7 @@
         <v>2009</v>
       </c>
       <c r="D299" t="n">
-        <v>28.36667472</v>
+        <v>22.3405996</v>
       </c>
     </row>
     <row r="300">
@@ -5500,7 +5500,7 @@
         <v>2010</v>
       </c>
       <c r="D300" t="n">
-        <v>29.96378722</v>
+        <v>21.59998341</v>
       </c>
     </row>
     <row r="301">
@@ -5514,7 +5514,7 @@
         <v>2011</v>
       </c>
       <c r="D301" t="n">
-        <v>30.4322425</v>
+        <v>21.29325773</v>
       </c>
     </row>
     <row r="302">
@@ -5528,7 +5528,7 @@
         <v>2000</v>
       </c>
       <c r="D302" t="n">
-        <v>26.54231826</v>
+        <v>22.0057091</v>
       </c>
     </row>
     <row r="303">
@@ -5542,7 +5542,7 @@
         <v>2001</v>
       </c>
       <c r="D303" t="n">
-        <v>25.43540032</v>
+        <v>22.2320257</v>
       </c>
     </row>
     <row r="304">
@@ -5556,7 +5556,7 @@
         <v>2002</v>
       </c>
       <c r="D304" t="n">
-        <v>25.06447111</v>
+        <v>22.77002</v>
       </c>
     </row>
     <row r="305">
@@ -5570,7 +5570,7 @@
         <v>2003</v>
       </c>
       <c r="D305" t="n">
-        <v>25.12293289</v>
+        <v>22.02996</v>
       </c>
     </row>
     <row r="306">
@@ -5584,7 +5584,7 @@
         <v>2004</v>
       </c>
       <c r="D306" t="n">
-        <v>24.54400288</v>
+        <v>22.2857254</v>
       </c>
     </row>
     <row r="307">
@@ -5598,7 +5598,7 @@
         <v>2005</v>
       </c>
       <c r="D307" t="n">
-        <v>23.93445676</v>
+        <v>21.92319801</v>
       </c>
     </row>
     <row r="308">
@@ -5612,7 +5612,7 @@
         <v>2006</v>
       </c>
       <c r="D308" t="n">
-        <v>22.93812813</v>
+        <v>21.31493575</v>
       </c>
     </row>
     <row r="309">
@@ -5626,7 +5626,7 @@
         <v>2007</v>
       </c>
       <c r="D309" t="n">
-        <v>22.01977573</v>
+        <v>21.41394836</v>
       </c>
     </row>
     <row r="310">
@@ -5640,7 +5640,7 @@
         <v>2008</v>
       </c>
       <c r="D310" t="n">
-        <v>21.23337545</v>
+        <v>21.53584524</v>
       </c>
     </row>
     <row r="311">
@@ -5654,7 +5654,7 @@
         <v>2009</v>
       </c>
       <c r="D311" t="n">
-        <v>22.3405996</v>
+        <v>21.44058907</v>
       </c>
     </row>
     <row r="312">
@@ -5668,7 +5668,7 @@
         <v>2010</v>
       </c>
       <c r="D312" t="n">
-        <v>21.59998341</v>
+        <v>22.43675795</v>
       </c>
     </row>
     <row r="313">
@@ -5682,7 +5682,7 @@
         <v>2011</v>
       </c>
       <c r="D313" t="n">
-        <v>21.29325773</v>
+        <v>22.6486821</v>
       </c>
     </row>
     <row r="314">
@@ -5696,7 +5696,7 @@
         <v>2000</v>
       </c>
       <c r="D314" t="n">
-        <v>22.0057091</v>
+        <v>55.63968723</v>
       </c>
     </row>
     <row r="315">
@@ -5710,7 +5710,7 @@
         <v>2001</v>
       </c>
       <c r="D315" t="n">
-        <v>22.2320257</v>
+        <v>56.03663262</v>
       </c>
     </row>
     <row r="316">
@@ -5724,7 +5724,7 @@
         <v>2002</v>
       </c>
       <c r="D316" t="n">
-        <v>22.77002</v>
+        <v>56.97922187</v>
       </c>
     </row>
     <row r="317">
@@ -5738,7 +5738,7 @@
         <v>2003</v>
       </c>
       <c r="D317" t="n">
-        <v>22.02996</v>
+        <v>56.9961548</v>
       </c>
     </row>
     <row r="318">
@@ -5752,7 +5752,7 @@
         <v>2004</v>
       </c>
       <c r="D318" t="n">
-        <v>22.2857254</v>
+        <v>50.34947934</v>
       </c>
     </row>
     <row r="319">
@@ -5766,7 +5766,7 @@
         <v>2005</v>
       </c>
       <c r="D319" t="n">
-        <v>21.92319801</v>
+        <v>52.26635275</v>
       </c>
     </row>
     <row r="320">
@@ -5780,7 +5780,7 @@
         <v>2006</v>
       </c>
       <c r="D320" t="n">
-        <v>21.31493575</v>
+        <v>51.12517288</v>
       </c>
     </row>
     <row r="321">
@@ -5794,7 +5794,7 @@
         <v>2007</v>
       </c>
       <c r="D321" t="n">
-        <v>21.41394836</v>
+        <v>50.36091848</v>
       </c>
     </row>
     <row r="322">
@@ -5808,7 +5808,7 @@
         <v>2008</v>
       </c>
       <c r="D322" t="n">
-        <v>21.53584524</v>
+        <v>50.33799581</v>
       </c>
     </row>
     <row r="323">
@@ -5822,7 +5822,7 @@
         <v>2009</v>
       </c>
       <c r="D323" t="n">
-        <v>21.44058907</v>
+        <v>49.16295623</v>
       </c>
     </row>
     <row r="324">
@@ -5836,7 +5836,7 @@
         <v>2010</v>
       </c>
       <c r="D324" t="n">
-        <v>22.43675795</v>
+        <v>48.291631</v>
       </c>
     </row>
     <row r="325">
@@ -5850,7 +5850,7 @@
         <v>2011</v>
       </c>
       <c r="D325" t="n">
-        <v>22.6486821</v>
+        <v>47.88522673</v>
       </c>
     </row>
     <row r="326">
@@ -5864,7 +5864,7 @@
         <v>2000</v>
       </c>
       <c r="D326" t="n">
-        <v>55.63968723</v>
+        <v>36.71421974</v>
       </c>
     </row>
     <row r="327">
@@ -5878,7 +5878,7 @@
         <v>2001</v>
       </c>
       <c r="D327" t="n">
-        <v>56.03663262</v>
+        <v>36.51622322</v>
       </c>
     </row>
     <row r="328">
@@ -5892,7 +5892,7 @@
         <v>2002</v>
       </c>
       <c r="D328" t="n">
-        <v>56.97922187</v>
+        <v>36.40137574</v>
       </c>
     </row>
     <row r="329">
@@ -5906,7 +5906,7 @@
         <v>2003</v>
       </c>
       <c r="D329" t="n">
-        <v>56.9961548</v>
+        <v>36.46677149</v>
       </c>
     </row>
     <row r="330">
@@ -5920,7 +5920,7 @@
         <v>2004</v>
       </c>
       <c r="D330" t="n">
-        <v>50.34947934</v>
+        <v>35.41693478</v>
       </c>
     </row>
     <row r="331">
@@ -5934,7 +5934,7 @@
         <v>2005</v>
       </c>
       <c r="D331" t="n">
-        <v>52.26635275</v>
+        <v>34.95480712</v>
       </c>
     </row>
     <row r="332">
@@ -5948,7 +5948,7 @@
         <v>2006</v>
       </c>
       <c r="D332" t="n">
-        <v>51.12517288</v>
+        <v>34.86692583</v>
       </c>
     </row>
     <row r="333">
@@ -5962,7 +5962,7 @@
         <v>2007</v>
       </c>
       <c r="D333" t="n">
-        <v>50.36091848</v>
+        <v>34.99592507</v>
       </c>
     </row>
     <row r="334">
@@ -5976,7 +5976,7 @@
         <v>2008</v>
       </c>
       <c r="D334" t="n">
-        <v>50.33799581</v>
+        <v>35.34542603</v>
       </c>
     </row>
     <row r="335">
@@ -5990,7 +5990,7 @@
         <v>2009</v>
       </c>
       <c r="D335" t="n">
-        <v>49.16295623</v>
+        <v>35.75308543</v>
       </c>
     </row>
     <row r="336">
@@ -6004,7 +6004,7 @@
         <v>2010</v>
       </c>
       <c r="D336" t="n">
-        <v>48.291631</v>
+        <v>34.39565736</v>
       </c>
     </row>
     <row r="337">
@@ -6018,7 +6018,7 @@
         <v>2011</v>
       </c>
       <c r="D337" t="n">
-        <v>47.88522673</v>
+        <v>34.26497993</v>
       </c>
     </row>
     <row r="338">
@@ -6032,7 +6032,7 @@
         <v>2000</v>
       </c>
       <c r="D338" t="n">
-        <v>36.71421974</v>
+        <v>30.14225635</v>
       </c>
     </row>
     <row r="339">
@@ -6046,7 +6046,7 @@
         <v>2001</v>
       </c>
       <c r="D339" t="n">
-        <v>36.51622322</v>
+        <v>31.12227371</v>
       </c>
     </row>
     <row r="340">
@@ -6060,7 +6060,7 @@
         <v>2002</v>
       </c>
       <c r="D340" t="n">
-        <v>36.40137574</v>
+        <v>31.11174659</v>
       </c>
     </row>
     <row r="341">
@@ -6074,7 +6074,7 @@
         <v>2003</v>
       </c>
       <c r="D341" t="n">
-        <v>36.46677149</v>
+        <v>31.42561781</v>
       </c>
     </row>
     <row r="342">
@@ -6088,7 +6088,7 @@
         <v>2004</v>
       </c>
       <c r="D342" t="n">
-        <v>35.41693478</v>
+        <v>32.63174508</v>
       </c>
     </row>
     <row r="343">
@@ -6102,7 +6102,7 @@
         <v>2005</v>
       </c>
       <c r="D343" t="n">
-        <v>34.95480712</v>
+        <v>32.45833379</v>
       </c>
     </row>
     <row r="344">
@@ -6116,7 +6116,7 @@
         <v>2006</v>
       </c>
       <c r="D344" t="n">
-        <v>34.86692583</v>
+        <v>32.61921542</v>
       </c>
     </row>
     <row r="345">
@@ -6130,7 +6130,7 @@
         <v>2007</v>
       </c>
       <c r="D345" t="n">
-        <v>34.99592507</v>
+        <v>32.27956606</v>
       </c>
     </row>
     <row r="346">
@@ -6144,7 +6144,7 @@
         <v>2008</v>
       </c>
       <c r="D346" t="n">
-        <v>35.34542603</v>
+        <v>31.93751964</v>
       </c>
     </row>
     <row r="347">
@@ -6158,7 +6158,7 @@
         <v>2009</v>
       </c>
       <c r="D347" t="n">
-        <v>35.75308543</v>
+        <v>32.17130443</v>
       </c>
     </row>
     <row r="348">
@@ -6172,7 +6172,7 @@
         <v>2010</v>
       </c>
       <c r="D348" t="n">
-        <v>34.39565736</v>
+        <v>31.85619362</v>
       </c>
     </row>
     <row r="349">
@@ -6186,7 +6186,7 @@
         <v>2011</v>
       </c>
       <c r="D349" t="n">
-        <v>34.26497993</v>
+        <v>32.51588369</v>
       </c>
     </row>
     <row r="350">
@@ -6200,7 +6200,7 @@
         <v>2000</v>
       </c>
       <c r="D350" t="n">
-        <v>30.14225635</v>
+        <v>20.8964178</v>
       </c>
     </row>
     <row r="351">
@@ -6214,7 +6214,7 @@
         <v>2001</v>
       </c>
       <c r="D351" t="n">
-        <v>31.12227371</v>
+        <v>20.83712291</v>
       </c>
     </row>
     <row r="352">
@@ -6228,7 +6228,7 @@
         <v>2002</v>
       </c>
       <c r="D352" t="n">
-        <v>31.11174659</v>
+        <v>22.07428505</v>
       </c>
     </row>
     <row r="353">
@@ -6242,7 +6242,7 @@
         <v>2003</v>
       </c>
       <c r="D353" t="n">
-        <v>31.42561781</v>
+        <v>22.04308272</v>
       </c>
     </row>
     <row r="354">
@@ -6256,7 +6256,7 @@
         <v>2004</v>
       </c>
       <c r="D354" t="n">
-        <v>32.63174508</v>
+        <v>21.63553446</v>
       </c>
     </row>
     <row r="355">
@@ -6270,7 +6270,7 @@
         <v>2005</v>
       </c>
       <c r="D355" t="n">
-        <v>32.45833379</v>
+        <v>20.84663227</v>
       </c>
     </row>
     <row r="356">
@@ -6284,7 +6284,7 @@
         <v>2006</v>
       </c>
       <c r="D356" t="n">
-        <v>32.61921542</v>
+        <v>19.3864312</v>
       </c>
     </row>
     <row r="357">
@@ -6298,7 +6298,7 @@
         <v>2007</v>
       </c>
       <c r="D357" t="n">
-        <v>32.27956606</v>
+        <v>19.67883304</v>
       </c>
     </row>
     <row r="358">
@@ -6312,7 +6312,7 @@
         <v>2008</v>
       </c>
       <c r="D358" t="n">
-        <v>31.93751964</v>
+        <v>20.11190328</v>
       </c>
     </row>
     <row r="359">
@@ -6326,7 +6326,7 @@
         <v>2009</v>
       </c>
       <c r="D359" t="n">
-        <v>32.17130443</v>
+        <v>20.08274966</v>
       </c>
     </row>
     <row r="360">
@@ -6340,7 +6340,7 @@
         <v>2010</v>
       </c>
       <c r="D360" t="n">
-        <v>31.85619362</v>
+        <v>21.09250752</v>
       </c>
     </row>
     <row r="361">
@@ -6354,7 +6354,7 @@
         <v>2011</v>
       </c>
       <c r="D361" t="n">
-        <v>32.51588369</v>
+        <v>22.3368563</v>
       </c>
     </row>
     <row r="362">
@@ -23961,40 +23961,40 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>20.8964178</v>
+        <v>64.71735376</v>
       </c>
       <c r="D20" t="n">
-        <v>20.83712291</v>
+        <v>64.31832025</v>
       </c>
       <c r="E20" t="n">
-        <v>22.07428505</v>
+        <v>64.27752894</v>
       </c>
       <c r="F20" t="n">
-        <v>22.04308272</v>
+        <v>63.88789661</v>
       </c>
       <c r="G20" t="n">
-        <v>21.63553446</v>
+        <v>62.38311177</v>
       </c>
       <c r="H20" t="n">
-        <v>20.84663227</v>
+        <v>62.80408966</v>
       </c>
       <c r="I20" t="n">
-        <v>19.3864312</v>
+        <v>63.11029919</v>
       </c>
       <c r="J20" t="n">
-        <v>19.67883304</v>
+        <v>63.07568185</v>
       </c>
       <c r="K20" t="n">
-        <v>20.11190328</v>
+        <v>62.55056524</v>
       </c>
       <c r="L20" t="n">
-        <v>20.08274966</v>
+        <v>59.70543711</v>
       </c>
       <c r="M20" t="n">
-        <v>21.09250752</v>
+        <v>50.17012017</v>
       </c>
       <c r="N20" t="n">
-        <v>22.3368563</v>
+        <v>50.33808382</v>
       </c>
     </row>
     <row r="21">
@@ -24005,40 +24005,40 @@
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>64.71735376</v>
+        <v>25.77242746</v>
       </c>
       <c r="D21" t="n">
-        <v>64.31832025</v>
+        <v>25.4673245</v>
       </c>
       <c r="E21" t="n">
-        <v>64.27752894</v>
+        <v>25.33963826</v>
       </c>
       <c r="F21" t="n">
-        <v>63.88789661</v>
+        <v>25.72232345</v>
       </c>
       <c r="G21" t="n">
-        <v>62.38311177</v>
+        <v>25.68155385</v>
       </c>
       <c r="H21" t="n">
-        <v>62.80408966</v>
+        <v>25.80113968</v>
       </c>
       <c r="I21" t="n">
-        <v>63.11029919</v>
+        <v>25.77938497</v>
       </c>
       <c r="J21" t="n">
-        <v>63.07568185</v>
+        <v>25.88859652</v>
       </c>
       <c r="K21" t="n">
-        <v>62.55056524</v>
+        <v>25.98737571</v>
       </c>
       <c r="L21" t="n">
-        <v>59.70543711</v>
+        <v>26.59640866</v>
       </c>
       <c r="M21" t="n">
-        <v>50.17012017</v>
+        <v>23.56555266</v>
       </c>
       <c r="N21" t="n">
-        <v>50.33808382</v>
+        <v>23.08009772</v>
       </c>
     </row>
     <row r="22">
@@ -24049,40 +24049,40 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>25.77242746</v>
+        <v>38.29006627</v>
       </c>
       <c r="D22" t="n">
-        <v>25.4673245</v>
+        <v>37.29679997</v>
       </c>
       <c r="E22" t="n">
-        <v>25.33963826</v>
+        <v>37.69966677</v>
       </c>
       <c r="F22" t="n">
-        <v>25.72232345</v>
+        <v>35.85824472</v>
       </c>
       <c r="G22" t="n">
-        <v>25.68155385</v>
+        <v>36.52350001</v>
       </c>
       <c r="H22" t="n">
-        <v>25.80113968</v>
+        <v>35.87259967</v>
       </c>
       <c r="I22" t="n">
-        <v>25.77938497</v>
+        <v>34.79117556</v>
       </c>
       <c r="J22" t="n">
-        <v>25.88859652</v>
+        <v>34.51603403</v>
       </c>
       <c r="K22" t="n">
-        <v>25.98737571</v>
+        <v>34.03838132</v>
       </c>
       <c r="L22" t="n">
-        <v>26.59640866</v>
+        <v>34.78716212</v>
       </c>
       <c r="M22" t="n">
-        <v>23.56555266</v>
+        <v>34.91473581</v>
       </c>
       <c r="N22" t="n">
-        <v>23.08009772</v>
+        <v>35.13336911</v>
       </c>
     </row>
     <row r="23">
@@ -24093,40 +24093,40 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>38.29006627</v>
+        <v>32.70164034</v>
       </c>
       <c r="D23" t="n">
-        <v>37.29679997</v>
+        <v>32.55584109</v>
       </c>
       <c r="E23" t="n">
-        <v>37.69966677</v>
+        <v>31.71832607</v>
       </c>
       <c r="F23" t="n">
-        <v>35.85824472</v>
+        <v>32.07259777</v>
       </c>
       <c r="G23" t="n">
-        <v>36.52350001</v>
+        <v>32.87825621</v>
       </c>
       <c r="H23" t="n">
-        <v>35.87259967</v>
+        <v>32.49172283</v>
       </c>
       <c r="I23" t="n">
-        <v>34.79117556</v>
+        <v>32.19084192</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51603403</v>
+        <v>31.73821025</v>
       </c>
       <c r="K23" t="n">
-        <v>34.03838132</v>
+        <v>31.27023206</v>
       </c>
       <c r="L23" t="n">
-        <v>34.78716212</v>
+        <v>31.40901324</v>
       </c>
       <c r="M23" t="n">
-        <v>34.91473581</v>
+        <v>31.16424729</v>
       </c>
       <c r="N23" t="n">
-        <v>35.13336911</v>
+        <v>31.26852193</v>
       </c>
     </row>
     <row r="24">
@@ -24137,40 +24137,40 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>32.70164034</v>
+        <v>40.14928723</v>
       </c>
       <c r="D24" t="n">
-        <v>32.55584109</v>
+        <v>40.42318623</v>
       </c>
       <c r="E24" t="n">
-        <v>31.71832607</v>
+        <v>39.57449658</v>
       </c>
       <c r="F24" t="n">
-        <v>32.07259777</v>
+        <v>43.69061982</v>
       </c>
       <c r="G24" t="n">
-        <v>32.87825621</v>
+        <v>49.86723452</v>
       </c>
       <c r="H24" t="n">
-        <v>32.49172283</v>
+        <v>51.48141486</v>
       </c>
       <c r="I24" t="n">
-        <v>32.19084192</v>
+        <v>52.90480373</v>
       </c>
       <c r="J24" t="n">
-        <v>31.73821025</v>
+        <v>53.84987418</v>
       </c>
       <c r="K24" t="n">
-        <v>31.27023206</v>
+        <v>53.90200242</v>
       </c>
       <c r="L24" t="n">
-        <v>31.40901324</v>
+        <v>56.94860602</v>
       </c>
       <c r="M24" t="n">
-        <v>31.16424729</v>
+        <v>56.31273771</v>
       </c>
       <c r="N24" t="n">
-        <v>31.26852193</v>
+        <v>56.00562354</v>
       </c>
     </row>
     <row r="25">
@@ -24181,40 +24181,40 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>40.14928723</v>
+        <v>28.56653082</v>
       </c>
       <c r="D25" t="n">
-        <v>40.42318623</v>
+        <v>28.5790603</v>
       </c>
       <c r="E25" t="n">
-        <v>39.57449658</v>
+        <v>28.23167415</v>
       </c>
       <c r="F25" t="n">
-        <v>43.69061982</v>
+        <v>27.45678457</v>
       </c>
       <c r="G25" t="n">
-        <v>49.86723452</v>
+        <v>27.32659917</v>
       </c>
       <c r="H25" t="n">
-        <v>51.48141486</v>
+        <v>25.754016</v>
       </c>
       <c r="I25" t="n">
-        <v>52.90480373</v>
+        <v>26.73203477</v>
       </c>
       <c r="J25" t="n">
-        <v>53.84987418</v>
+        <v>26.64726549</v>
       </c>
       <c r="K25" t="n">
-        <v>53.90200242</v>
+        <v>27.97126748</v>
       </c>
       <c r="L25" t="n">
-        <v>56.94860602</v>
+        <v>28.36667472</v>
       </c>
       <c r="M25" t="n">
-        <v>56.31273771</v>
+        <v>29.96378722</v>
       </c>
       <c r="N25" t="n">
-        <v>56.00562354</v>
+        <v>30.4322425</v>
       </c>
     </row>
     <row r="26">
@@ -24225,40 +24225,40 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>28.56653082</v>
+        <v>26.54231826</v>
       </c>
       <c r="D26" t="n">
-        <v>28.5790603</v>
+        <v>25.43540032</v>
       </c>
       <c r="E26" t="n">
-        <v>28.23167415</v>
+        <v>25.06447111</v>
       </c>
       <c r="F26" t="n">
-        <v>27.45678457</v>
+        <v>25.12293289</v>
       </c>
       <c r="G26" t="n">
-        <v>27.32659917</v>
+        <v>24.54400288</v>
       </c>
       <c r="H26" t="n">
-        <v>25.754016</v>
+        <v>23.93445676</v>
       </c>
       <c r="I26" t="n">
-        <v>26.73203477</v>
+        <v>22.93812813</v>
       </c>
       <c r="J26" t="n">
-        <v>26.64726549</v>
+        <v>22.01977573</v>
       </c>
       <c r="K26" t="n">
-        <v>27.97126748</v>
+        <v>21.23337545</v>
       </c>
       <c r="L26" t="n">
-        <v>28.36667472</v>
+        <v>22.3405996</v>
       </c>
       <c r="M26" t="n">
-        <v>29.96378722</v>
+        <v>21.59998341</v>
       </c>
       <c r="N26" t="n">
-        <v>30.4322425</v>
+        <v>21.29325773</v>
       </c>
     </row>
     <row r="27">
@@ -24269,40 +24269,40 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>26.54231826</v>
+        <v>22.0057091</v>
       </c>
       <c r="D27" t="n">
-        <v>25.43540032</v>
+        <v>22.2320257</v>
       </c>
       <c r="E27" t="n">
-        <v>25.06447111</v>
+        <v>22.77002</v>
       </c>
       <c r="F27" t="n">
-        <v>25.12293289</v>
+        <v>22.02996</v>
       </c>
       <c r="G27" t="n">
-        <v>24.54400288</v>
+        <v>22.2857254</v>
       </c>
       <c r="H27" t="n">
-        <v>23.93445676</v>
+        <v>21.92319801</v>
       </c>
       <c r="I27" t="n">
-        <v>22.93812813</v>
+        <v>21.31493575</v>
       </c>
       <c r="J27" t="n">
-        <v>22.01977573</v>
+        <v>21.41394836</v>
       </c>
       <c r="K27" t="n">
-        <v>21.23337545</v>
+        <v>21.53584524</v>
       </c>
       <c r="L27" t="n">
-        <v>22.3405996</v>
+        <v>21.44058907</v>
       </c>
       <c r="M27" t="n">
-        <v>21.59998341</v>
+        <v>22.43675795</v>
       </c>
       <c r="N27" t="n">
-        <v>21.29325773</v>
+        <v>22.6486821</v>
       </c>
     </row>
     <row r="28">
@@ -24313,40 +24313,40 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>22.0057091</v>
+        <v>55.63968723</v>
       </c>
       <c r="D28" t="n">
-        <v>22.2320257</v>
+        <v>56.03663262</v>
       </c>
       <c r="E28" t="n">
-        <v>22.77002</v>
+        <v>56.97922187</v>
       </c>
       <c r="F28" t="n">
-        <v>22.02996</v>
+        <v>56.9961548</v>
       </c>
       <c r="G28" t="n">
-        <v>22.2857254</v>
+        <v>50.34947934</v>
       </c>
       <c r="H28" t="n">
-        <v>21.92319801</v>
+        <v>52.26635275</v>
       </c>
       <c r="I28" t="n">
-        <v>21.31493575</v>
+        <v>51.12517288</v>
       </c>
       <c r="J28" t="n">
-        <v>21.41394836</v>
+        <v>50.36091848</v>
       </c>
       <c r="K28" t="n">
-        <v>21.53584524</v>
+        <v>50.33799581</v>
       </c>
       <c r="L28" t="n">
-        <v>21.44058907</v>
+        <v>49.16295623</v>
       </c>
       <c r="M28" t="n">
-        <v>22.43675795</v>
+        <v>48.291631</v>
       </c>
       <c r="N28" t="n">
-        <v>22.6486821</v>
+        <v>47.88522673</v>
       </c>
     </row>
     <row r="29">
@@ -24357,40 +24357,40 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>55.63968723</v>
+        <v>36.71421974</v>
       </c>
       <c r="D29" t="n">
-        <v>56.03663262</v>
+        <v>36.51622322</v>
       </c>
       <c r="E29" t="n">
-        <v>56.97922187</v>
+        <v>36.40137574</v>
       </c>
       <c r="F29" t="n">
-        <v>56.9961548</v>
+        <v>36.46677149</v>
       </c>
       <c r="G29" t="n">
-        <v>50.34947934</v>
+        <v>35.41693478</v>
       </c>
       <c r="H29" t="n">
-        <v>52.26635275</v>
+        <v>34.95480712</v>
       </c>
       <c r="I29" t="n">
-        <v>51.12517288</v>
+        <v>34.86692583</v>
       </c>
       <c r="J29" t="n">
-        <v>50.36091848</v>
+        <v>34.99592507</v>
       </c>
       <c r="K29" t="n">
-        <v>50.33799581</v>
+        <v>35.34542603</v>
       </c>
       <c r="L29" t="n">
-        <v>49.16295623</v>
+        <v>35.75308543</v>
       </c>
       <c r="M29" t="n">
-        <v>48.291631</v>
+        <v>34.39565736</v>
       </c>
       <c r="N29" t="n">
-        <v>47.88522673</v>
+        <v>34.26497993</v>
       </c>
     </row>
     <row r="30">
@@ -24401,40 +24401,40 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>36.71421974</v>
+        <v>30.14225635</v>
       </c>
       <c r="D30" t="n">
-        <v>36.51622322</v>
+        <v>31.12227371</v>
       </c>
       <c r="E30" t="n">
-        <v>36.40137574</v>
+        <v>31.11174659</v>
       </c>
       <c r="F30" t="n">
-        <v>36.46677149</v>
+        <v>31.42561781</v>
       </c>
       <c r="G30" t="n">
-        <v>35.41693478</v>
+        <v>32.63174508</v>
       </c>
       <c r="H30" t="n">
-        <v>34.95480712</v>
+        <v>32.45833379</v>
       </c>
       <c r="I30" t="n">
-        <v>34.86692583</v>
+        <v>32.61921542</v>
       </c>
       <c r="J30" t="n">
-        <v>34.99592507</v>
+        <v>32.27956606</v>
       </c>
       <c r="K30" t="n">
-        <v>35.34542603</v>
+        <v>31.93751964</v>
       </c>
       <c r="L30" t="n">
-        <v>35.75308543</v>
+        <v>32.17130443</v>
       </c>
       <c r="M30" t="n">
-        <v>34.39565736</v>
+        <v>31.85619362</v>
       </c>
       <c r="N30" t="n">
-        <v>34.26497993</v>
+        <v>32.51588369</v>
       </c>
     </row>
     <row r="31">
@@ -24445,40 +24445,40 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>30.14225635</v>
+        <v>20.8964178</v>
       </c>
       <c r="D31" t="n">
-        <v>31.12227371</v>
+        <v>20.83712291</v>
       </c>
       <c r="E31" t="n">
-        <v>31.11174659</v>
+        <v>22.07428505</v>
       </c>
       <c r="F31" t="n">
-        <v>31.42561781</v>
+        <v>22.04308272</v>
       </c>
       <c r="G31" t="n">
-        <v>32.63174508</v>
+        <v>21.63553446</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45833379</v>
+        <v>20.84663227</v>
       </c>
       <c r="I31" t="n">
-        <v>32.61921542</v>
+        <v>19.3864312</v>
       </c>
       <c r="J31" t="n">
-        <v>32.27956606</v>
+        <v>19.67883304</v>
       </c>
       <c r="K31" t="n">
-        <v>31.93751964</v>
+        <v>20.11190328</v>
       </c>
       <c r="L31" t="n">
-        <v>32.17130443</v>
+        <v>20.08274966</v>
       </c>
       <c r="M31" t="n">
-        <v>31.85619362</v>
+        <v>21.09250752</v>
       </c>
       <c r="N31" t="n">
-        <v>32.51588369</v>
+        <v>22.3368563</v>
       </c>
     </row>
     <row r="32">
